--- a/School-Closures-Database-Final-1.xlsx
+++ b/School-Closures-Database-Final-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolcavallari/Github/Assignments fall 21:22/Final-Work-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F99987-8D69-ED46-BB25-12CDDE57D75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22670639-333B-AB43-8BE1-2FB23331326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2428,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10737,9 +10737,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10966,27 +10969,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B88C7B33-CD5A-493F-B418-4A148406AA90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{745566F6-A54D-4903-86D9-E6E87A14082D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="038c04b0-e699-46f7-8e9d-3160fd043c28"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="76bfd018-3c3a-4f66-8220-b94b5a203140"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11011,9 +11002,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{745566F6-A54D-4903-86D9-E6E87A14082D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B88C7B33-CD5A-493F-B418-4A148406AA90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="038c04b0-e699-46f7-8e9d-3160fd043c28"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="76bfd018-3c3a-4f66-8220-b94b5a203140"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/School-Closures-Database-Final-1.xlsx
+++ b/School-Closures-Database-Final-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolcavallari/Github/Assignments fall 21:22/Final-Work-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22670639-333B-AB43-8BE1-2FB23331326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC3F988-5061-1D43-8364-6C6DF6B6CC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="444">
   <si>
     <t>UNICEF GLOBAL DATABASES [data.unicef.org]</t>
   </si>
@@ -1276,9 +1276,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>UZB</t>
   </si>
   <si>
@@ -1358,6 +1355,12 @@
   </si>
   <si>
     <t>Regional aggregates of the number of days by school closure status (see Note 1, Note 2 for the methodology and definitions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2426,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M196" sqref="M196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2448,7 +2451,7 @@
     <col min="12" max="13" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>1081020</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>508196</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2650,8 +2653,11 @@
       <c r="M5" s="2">
         <v>120062</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>217543</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>1826347.1810000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>69249</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>1246502</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>347205.92660000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -2979,7 +2985,7 @@
         <v>321759</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>292889</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>759820</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -3745,7 +3751,9 @@
       <c r="I32" s="1">
         <v>165</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
       <c r="K32" s="2">
         <v>2364626</v>
       </c>
@@ -8409,7 +8417,9 @@
       <c r="I146" s="1">
         <v>191</v>
       </c>
-      <c r="J146" s="2"/>
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
       <c r="K146" s="2">
         <v>1507780</v>
       </c>
@@ -8858,7 +8868,9 @@
       <c r="I157" s="1">
         <v>185</v>
       </c>
-      <c r="J157" s="2"/>
+      <c r="J157" s="2">
+        <v>0</v>
+      </c>
       <c r="K157" s="2">
         <v>234653</v>
       </c>
@@ -9061,7 +9073,9 @@
       <c r="I162" s="1">
         <v>191</v>
       </c>
-      <c r="J162" s="2"/>
+      <c r="J162" s="2">
+        <v>0</v>
+      </c>
       <c r="K162" s="2">
         <v>457132</v>
       </c>
@@ -10182,7 +10196,7 @@
         <v>414</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>18</v>
@@ -10220,10 +10234,10 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>15</v>
@@ -10261,10 +10275,10 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>10</v>
@@ -10302,10 +10316,10 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>10</v>
@@ -10343,10 +10357,10 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>10</v>
@@ -10384,10 +10398,10 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>16</v>
@@ -10419,14 +10433,16 @@
       <c r="L195" s="2">
         <v>5373639</v>
       </c>
-      <c r="M195" s="2"/>
+      <c r="M195" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>16</v>
@@ -10464,10 +10480,10 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>16</v>
@@ -10505,10 +10521,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>13</v>
@@ -10546,10 +10562,10 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>12</v>
@@ -10587,10 +10603,10 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>12</v>
@@ -10626,10 +10642,10 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>12</v>
@@ -10667,22 +10683,22 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B206" s="30"/>
       <c r="C206" s="30"/>
@@ -10737,15 +10753,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C9E9093A7ACD641BFBABC5AD4216A55" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e076b9d56c9b9ff4a652b243b8730d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="76bfd018-3c3a-4f66-8220-b94b5a203140" xmlns:ns4="038c04b0-e699-46f7-8e9d-3160fd043c28" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="638445c7ac7f8e07d7b0acbb3f3ae9fc" ns3:_="" ns4:_="">
     <xsd:import namespace="76bfd018-3c3a-4f66-8220-b94b5a203140"/>
@@ -10968,21 +10975,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{745566F6-A54D-4903-86D9-E6E87A14082D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE342A5-24CF-4467-824A-E95699896580}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11001,7 +11009,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B88C7B33-CD5A-493F-B418-4A148406AA90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -11016,4 +11024,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{745566F6-A54D-4903-86D9-E6E87A14082D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>